--- a/Assets/filtered_output_new.xlsx
+++ b/Assets/filtered_output_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\ExcelExportetWpf\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58761E6-C9B5-4C08-AAA5-CB3C833BABAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB4284C-AF17-410D-913F-E4A1385FC12D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
